--- a/BalanceSheet/COO_bal.xlsx
+++ b/BalanceSheet/COO_bal.xlsx
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-1981300000.0</v>
+        <v>-2010000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-900000.0</v>
+        <v>-54000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>-52000000.0</v>
